--- a/StructureDefinition-jp-observation-labresult.xlsx
+++ b/StructureDefinition-jp-observation-labresult.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:15:59+00:00</t>
+    <t>2022-03-24T22:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-jp-observation-labresult.xlsx
+++ b/StructureDefinition-jp-observation-labresult.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T22:32:00+00:00</t>
+    <t>2022-03-24T23:09:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-jp-observation-labresult.xlsx
+++ b/StructureDefinition-jp-observation-labresult.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T23:09:39+00:00</t>
+    <t>2022-03-24T23:22:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-jp-observation-labresult.xlsx
+++ b/StructureDefinition-jp-observation-labresult.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T23:22:35+00:00</t>
+    <t>2022-03-24T23:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-jp-observation-labresult.xlsx
+++ b/StructureDefinition-jp-observation-labresult.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T23:36:28+00:00</t>
+    <t>2022-03-24T23:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-jp-observation-labresult.xlsx
+++ b/StructureDefinition-jp-observation-labresult.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T23:49:11+00:00</t>
+    <t>2022-04-06T01:32:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
